--- a/resources/excel/example.xlsx
+++ b/resources/excel/example.xlsx
@@ -15,48 +15,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="240">
-  <si>
-    <t>activity_title</t>
-  </si>
-  <si>
-    <t>name_of_organisation</t>
-  </si>
-  <si>
-    <t>type_of_organisation</t>
-  </si>
-  <si>
-    <t>activity_type</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="228">
+  <si>
+    <t>Activity Title</t>
+  </si>
+  <si>
+    <t>Name of Organisation</t>
+  </si>
+  <si>
+    <t>Type of Organisation</t>
+  </si>
+  <si>
+    <t>Activity Type</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>audience_comma_separated_ids</t>
-  </si>
-  <si>
-    <t>theme_comma_separated_ids</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>start_date</t>
-  </si>
-  <si>
-    <t>end_date</t>
-  </si>
-  <si>
-    <t>organiser_website</t>
-  </si>
-  <si>
-    <t>contact_email</t>
+    <t>Audience (comma separated IDs)</t>
+  </si>
+  <si>
+    <t>Theme (comma separated IDs)</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Organiser Website</t>
+  </si>
+  <si>
+    <t>Contact email</t>
   </si>
   <si>
     <t>Longitude</t>
@@ -71,45 +71,6 @@
     <t>creator_id</t>
   </si>
   <si>
-    <t>participants_count</t>
-  </si>
-  <si>
-    <t>image_path</t>
-  </si>
-  <si>
-    <t>recurring_event</t>
-  </si>
-  <si>
-    <t>recurring_type</t>
-  </si>
-  <si>
-    <t>males_count</t>
-  </si>
-  <si>
-    <t>females_count</t>
-  </si>
-  <si>
-    <t>other_count</t>
-  </si>
-  <si>
-    <t>is_extracurricular_event</t>
-  </si>
-  <si>
-    <t>is_standard_school_curriculum</t>
-  </si>
-  <si>
-    <t>is_use_resource</t>
-  </si>
-  <si>
-    <t>activity_format</t>
-  </si>
-  <si>
-    <t>ages</t>
-  </si>
-  <si>
-    <t>duration</t>
-  </si>
-  <si>
     <t>Segurança Digital - Um Desafio do Presente, Uma Carreira do Futuro webinar</t>
   </si>
   <si>
@@ -131,6 +92,9 @@
     <t>Portuguese</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>https://www.japortugal.org/</t>
   </si>
   <si>
@@ -138,6 +102,9 @@
   </si>
   <si>
     <t>events/pictures/apple/apple.png</t>
+  </si>
+  <si>
+    <t>LEAVE BLANK</t>
   </si>
   <si>
     <t>JA Italy National entrepreneurship competition</t>
@@ -160,7 +127,7 @@
     <t>Italian</t>
   </si>
   <si>
-    <t>Campionati di Imprenditorialità - JA Italia</t>
+    <t>https://sostienici.jaitalia.org/eventi/campionati-imprenditorialita/</t>
   </si>
   <si>
     <t>Gen-E 2025</t>
@@ -178,7 +145,7 @@
     <t>21/05/2025</t>
   </si>
   <si>
-    <t>Gen-e 2025 - Athens, Greece - 1st to 3rd July 2025</t>
+    <t>https://gen-e.eu/</t>
   </si>
   <si>
     <t>Gen-E Event</t>
@@ -206,7 +173,7 @@
     <t>3 Avanade volunteers recorded 4 videos together with Msft volunteers on Job search and AI</t>
   </si>
   <si>
-    <t>Boost Your Job! Cerca lavoro con l'intelligenza artificiale</t>
+    <t>https://www.mondodigitale.org/formazione/risorse-educative/boost-your-job-cerca-lavoro-con-lintelligenza-artificiale</t>
   </si>
   <si>
     <t>RomeCup event</t>
@@ -218,10 +185,13 @@
     <t>6, 17</t>
   </si>
   <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
     <t>9/05/20205</t>
   </si>
   <si>
-    <t>Home - Romecup 2025</t>
+    <t>https://www.romecup.org/</t>
   </si>
   <si>
     <t>Refresh Academy</t>
@@ -239,7 +209,7 @@
     <t>Viale Giuseppe Fanin, 48, 40127 Bologna BO</t>
   </si>
   <si>
-    <t>Refresh Academy – La crescita personale per una trasformazione digitale inclusiva</t>
+    <t>https://refresh-academy.org/</t>
   </si>
   <si>
     <t>Rodrigo visit UCL students</t>
@@ -305,7 +275,7 @@
     <t xml:space="preserve">Via Ostiense, 133 00154 Roma </t>
   </si>
   <si>
-    <t>RomeCup 2025</t>
+    <t>https://polandbusinessrun.pl/en/about/foundation</t>
   </si>
   <si>
     <t>Business Run</t>
@@ -341,9 +311,6 @@
     <t>Avanade was a regional partners for this competition 4th time in a row. We were jury members on all stages of this competition. Winners team will visit Avanade Cracow for 2 day workshops to prepare hem for grand finale in Greece, GEN-E. We recognized also on person with an Avanade Leadership Award.</t>
   </si>
   <si>
-    <t>Miniprzedsiebiorstwo Roku 2025_video relacja z finału</t>
-  </si>
-  <si>
     <t>Prototyping in AI webinar</t>
   </si>
   <si>
@@ -365,7 +332,7 @@
     <t>At the Company Program National Finals, Fergus delivered several workshops to all attendees on Emerging Tech and innovation in entrepreneurship reaching 1500 young people with inspiration.</t>
   </si>
   <si>
-    <t>Company Programme and Start Up Programme Final Showcases - Young Enterprise &amp; Young Money</t>
+    <t>https://www.young-enterprise.org.uk/home/impact-policy/media-centre/news/company-programme-and-start-up-programme-final-showcases/</t>
   </si>
   <si>
     <t>Webinar on Building Communities in Computer Science</t>
@@ -393,9 +360,6 @@
   </si>
   <si>
     <t>JA Poland - Economy for everyday - online workshops</t>
-  </si>
-  <si>
-    <t>Strona główna - Fundacja Młodzieżowej Przedsiębiorczości</t>
   </si>
   <si>
     <t>Avanade Spain Hackathon UAX Madrid</t>
@@ -453,7 +417,7 @@
     <t>Irish</t>
   </si>
   <si>
-    <t>Visit Jigsaw.ie | The National Centre for Youth Mental Health</t>
+    <t>https://jigsaw.ie/</t>
   </si>
   <si>
     <t>Flaare Youth Workers workshop</t>
@@ -768,7 +732,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -782,11 +746,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -798,12 +757,32 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color rgb="FF374151"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <u/>
       <sz val="12.0"/>
-      <color rgb="FF374151"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -813,7 +792,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -824,18 +803,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCE5CD"/>
-        <bgColor rgb="FFFCE5CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -851,62 +818,67 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="22" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="22" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1148,7 +1120,7 @@
     <col customWidth="1" min="15" max="16" width="20.89"/>
     <col customWidth="1" min="17" max="17" width="45.44"/>
     <col customWidth="1" min="18" max="18" width="24.11"/>
-    <col customWidth="1" min="19" max="32" width="11.0"/>
+    <col customWidth="1" min="19" max="26" width="11.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -1164,7 +1136,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1182,10 +1154,10 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -1194,2729 +1166,2441 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="F2" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="G2" s="8">
+        <v>17.0</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="J2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="K2" s="10">
+        <v>45819.21582175926</v>
+      </c>
+      <c r="L2" s="10">
+        <v>45819.21582175926</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="N2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="O2" s="8">
+        <v>38.707751</v>
+      </c>
+      <c r="P2" s="8">
+        <v>-9.136592</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="R2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="F3" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>17.0</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="I3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="J3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="10">
+        <v>45819.17512731482</v>
+      </c>
+      <c r="L3" s="10">
+        <v>45819.17512731482</v>
+      </c>
+      <c r="M3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="9">
+      <c r="N3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="8">
+        <v>42.638426</v>
+      </c>
+      <c r="P3" s="8">
+        <v>12.674297</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="7">
+        <v>17.0</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="8">
+        <v>60.472023</v>
+      </c>
+      <c r="P4" s="8">
+        <v>8.468946</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="7">
+        <v>17.0</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="8">
+        <v>60.472023</v>
+      </c>
+      <c r="P5" s="8">
+        <v>8.468946</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="7">
+        <v>17.0</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="8">
+        <v>60.472023</v>
+      </c>
+      <c r="P6" s="8">
+        <v>8.468946</v>
+      </c>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="7">
+        <v>17.0</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="8">
+        <v>53.41291</v>
+      </c>
+      <c r="P7" s="8">
+        <v>-8.24389</v>
+      </c>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="7">
+        <v>17.0</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="8">
+        <v>51.507351</v>
+      </c>
+      <c r="P8" s="8">
+        <v>-0.127758</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="7">
         <v>3.0</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G9" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="10">
+        <v>45967.0</v>
+      </c>
+      <c r="L9" s="10">
+        <v>45967.0</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" s="8">
+        <v>38.707751</v>
+      </c>
+      <c r="P9" s="8">
+        <v>-9.136592</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="G10" s="7">
         <v>17.0</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="12">
-        <v>45819.21582175926</v>
-      </c>
-      <c r="L2" s="12">
-        <v>45819.21582175926</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="10">
+      <c r="H10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="10">
+        <v>45817.1974537037</v>
+      </c>
+      <c r="L10" s="10">
+        <v>45817.1974537037</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="8">
+        <v>42.638426</v>
+      </c>
+      <c r="P10" s="8">
+        <v>12.674297</v>
+      </c>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="10">
+        <v>45843.0</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="8">
+        <v>42.638426</v>
+      </c>
+      <c r="P11" s="8">
+        <v>12.674297</v>
+      </c>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>17.0</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="10">
+        <v>45814.12819444444</v>
+      </c>
+      <c r="L12" s="10">
+        <v>45814.12819444444</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" s="8">
+        <v>44.5143191</v>
+      </c>
+      <c r="P12" s="8">
+        <v>11.4075681</v>
+      </c>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>17.0</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="10">
+        <v>45813.15251157407</v>
+      </c>
+      <c r="L13" s="10">
+        <v>45813.15251157407</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" s="8">
+        <v>51.523569</v>
+      </c>
+      <c r="P13" s="8">
+        <v>-0.132424</v>
+      </c>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="10">
+        <v>45813.13400462963</v>
+      </c>
+      <c r="L14" s="10">
+        <v>45813.13400462963</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" s="8">
+        <v>48.8964618</v>
+      </c>
+      <c r="P14" s="8">
+        <v>2.2363532</v>
+      </c>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="7">
+        <v>17.0</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K15" s="10">
+        <v>45813.06700231481</v>
+      </c>
+      <c r="L15" s="10">
+        <v>45813.06700231481</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" s="8">
+        <v>41.8647577</v>
+      </c>
+      <c r="P15" s="8">
+        <v>12.479958</v>
+      </c>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="G16" s="7">
+        <v>17.0</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="10">
+        <v>45803.237280092595</v>
+      </c>
+      <c r="L16" s="10">
+        <v>45803.237280092595</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O16" s="8">
+        <v>50.0691209</v>
+      </c>
+      <c r="P16" s="8">
+        <v>19.931866</v>
+      </c>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="G17" s="7">
+        <v>17.0</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="10">
+        <v>45797.12290509259</v>
+      </c>
+      <c r="L17" s="10">
+        <v>45797.12290509259</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O17" s="8">
+        <v>52.215933</v>
+      </c>
+      <c r="P17" s="8">
+        <v>19.134422</v>
+      </c>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="G18" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="10">
+        <v>45905.0</v>
+      </c>
+      <c r="L18" s="10">
+        <v>45905.0</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" s="8">
         <v>38.707751</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P18" s="8">
         <v>-9.136592</v>
       </c>
-      <c r="Q2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" s="14">
-        <v>1004595.0</v>
-      </c>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="G19" s="7">
+        <v>17.0</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="10">
+        <v>45797.07334490741</v>
+      </c>
+      <c r="L19" s="10">
+        <v>45797.07334490741</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" s="8">
+        <v>38.707751</v>
+      </c>
+      <c r="P19" s="8">
+        <v>-9.136592</v>
+      </c>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="G20" s="7">
+        <v>17.0</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="10">
+        <v>45797.07288194444</v>
+      </c>
+      <c r="L20" s="10">
+        <v>45797.07288194444</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O20" s="8">
+        <v>51.507322</v>
+      </c>
+      <c r="P20" s="8">
+        <v>-0.127647</v>
+      </c>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="G21" s="7">
+        <v>18.0</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="10">
+        <v>45797.072546296295</v>
+      </c>
+      <c r="L21" s="10">
+        <v>45797.072546296295</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O21" s="8">
+        <v>60.128161</v>
+      </c>
+      <c r="P21" s="8">
+        <v>18.643501</v>
+      </c>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="G22" s="7">
+        <v>17.0</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="10">
+        <v>45797.07171296296</v>
+      </c>
+      <c r="L22" s="10">
+        <v>45797.07171296296</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O22" s="8">
+        <v>52.215933</v>
+      </c>
+      <c r="P22" s="8">
+        <v>19.134422</v>
+      </c>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G23" s="7">
+        <v>17.0</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K23" s="10">
+        <v>45797.07144675926</v>
+      </c>
+      <c r="L23" s="10">
+        <v>45797.07144675926</v>
+      </c>
+      <c r="M23" s="3"/>
+      <c r="N23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O23" s="8">
+        <v>40.4494508</v>
+      </c>
+      <c r="P23" s="8">
+        <v>-3.9935704</v>
+      </c>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="G24" s="7">
+        <v>17.0</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="10">
+        <v>45797.070868055554</v>
+      </c>
+      <c r="L24" s="10">
+        <v>45797.070868055554</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O24" s="8">
+        <v>52.215933</v>
+      </c>
+      <c r="P24" s="8">
+        <v>19.134422</v>
+      </c>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="10">
+        <v>45793.07349537037</v>
+      </c>
+      <c r="L25" s="10">
+        <v>45793.07349537037</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O25" s="8">
+        <v>52.865196</v>
+      </c>
+      <c r="P25" s="8">
+        <v>-7.97946</v>
+      </c>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K26" s="10">
+        <v>45791.34453703704</v>
+      </c>
+      <c r="L26" s="10">
+        <v>45791.34453703704</v>
+      </c>
+      <c r="M26" s="3"/>
+      <c r="N26" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O26" s="8">
+        <v>51.511358</v>
+      </c>
+      <c r="P26" s="8">
+        <v>-0.082295</v>
+      </c>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="G27" s="7">
+        <v>17.0</v>
+      </c>
+      <c r="H27" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="I27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="J27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="10">
+        <v>45842.0</v>
+      </c>
+      <c r="L27" s="10">
+        <v>45842.0</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O27" s="8">
+        <v>42.638426</v>
+      </c>
+      <c r="P27" s="8">
+        <v>12.674297</v>
+      </c>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" s="7">
         <v>3.0</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G28" s="7">
         <v>17.0</v>
       </c>
-      <c r="H3" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="12">
-        <v>45819.17512731482</v>
-      </c>
-      <c r="L3" s="12">
-        <v>45819.17512731482</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="10">
-        <v>42.638426</v>
-      </c>
-      <c r="P3" s="10">
-        <v>12.674297</v>
-      </c>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="14">
-        <v>1004595.0</v>
-      </c>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="H28" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="10">
+        <v>45770.20568287037</v>
+      </c>
+      <c r="L28" s="10">
+        <v>45770.20568287037</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O28" s="8">
+        <v>52.215933</v>
+      </c>
+      <c r="P28" s="8">
+        <v>19.134422</v>
+      </c>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="G29" s="7">
+        <v>17.0</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="10">
+        <v>45756.03760416667</v>
+      </c>
+      <c r="L29" s="10">
+        <v>45756.03760416667</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O29" s="8">
+        <v>52.215933</v>
+      </c>
+      <c r="P29" s="8">
+        <v>19.134422</v>
+      </c>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F30" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="G30" s="7">
+        <v>18.0</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" s="10">
+        <v>45754.40056712963</v>
+      </c>
+      <c r="L30" s="10">
+        <v>45754.40056712963</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O30" s="8">
+        <v>51.507322</v>
+      </c>
+      <c r="P30" s="8">
+        <v>-0.127647</v>
+      </c>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="G31" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K31" s="10">
+        <v>45754.35631944444</v>
+      </c>
+      <c r="L31" s="10">
+        <v>45754.35631944444</v>
+      </c>
+      <c r="M31" s="3"/>
+      <c r="N31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O31" s="8">
+        <v>52.340691</v>
+      </c>
+      <c r="P31" s="8">
+        <v>4.8584077</v>
+      </c>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F32" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="G32" s="7">
+        <v>18.0</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K32" s="10">
+        <v>45754.32711805555</v>
+      </c>
+      <c r="L32" s="10">
+        <v>45754.32711805555</v>
+      </c>
+      <c r="M32" s="3"/>
+      <c r="N32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O32" s="8">
+        <v>52.340691</v>
+      </c>
+      <c r="P32" s="8">
+        <v>4.8584077</v>
+      </c>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F33" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="G33" s="7">
+        <v>18.0</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K33" s="10">
+        <v>45754.214583333334</v>
+      </c>
+      <c r="L33" s="10">
+        <v>45754.214583333334</v>
+      </c>
+      <c r="M33" s="3"/>
+      <c r="N33" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O33" s="8">
+        <v>52.340691</v>
+      </c>
+      <c r="P33" s="8">
+        <v>4.8584077</v>
+      </c>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F34" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G34" s="7">
+        <v>18.0</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="K34" s="10">
+        <v>45744.104363425926</v>
+      </c>
+      <c r="L34" s="10">
+        <v>45744.104363425926</v>
+      </c>
+      <c r="M34" s="3"/>
+      <c r="N34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O34" s="8">
+        <v>39.326234</v>
+      </c>
+      <c r="P34" s="8">
+        <v>-4.838065</v>
+      </c>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F35" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="G35" s="7">
+        <v>18.0</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J35" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" s="10">
+        <v>45723.09462962963</v>
+      </c>
+      <c r="L35" s="10">
+        <v>45723.09462962963</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O35" s="8">
+        <v>39.326234</v>
+      </c>
+      <c r="P35" s="8">
+        <v>-4.838065</v>
+      </c>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F36" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G36" s="7">
+        <v>18.0</v>
+      </c>
+      <c r="H36" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="I36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="9">
-        <v>17.0</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="10">
-        <v>60.472023</v>
-      </c>
-      <c r="P4" s="10">
-        <v>8.468946</v>
-      </c>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="14">
-        <v>1004595.0</v>
-      </c>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="9">
-        <v>17.0</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="10">
-        <v>60.472023</v>
-      </c>
-      <c r="P5" s="10">
-        <v>8.468946</v>
-      </c>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="14">
-        <v>1004595.0</v>
-      </c>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="11"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="9">
-        <v>17.0</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O6" s="10">
-        <v>60.472023</v>
-      </c>
-      <c r="P6" s="10">
-        <v>8.468946</v>
-      </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="14">
-        <v>1004595.0</v>
-      </c>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="9">
-        <v>17.0</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O7" s="10">
-        <v>53.41291</v>
-      </c>
-      <c r="P7" s="10">
-        <v>-8.24389</v>
-      </c>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="14">
-        <v>1004595.0</v>
-      </c>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="9">
-        <v>17.0</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O8" s="10">
-        <v>51.507351</v>
-      </c>
-      <c r="P8" s="10">
-        <v>-0.127758</v>
-      </c>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="14">
-        <v>1004595.0</v>
-      </c>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="9">
+      <c r="J36" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="K36" s="10">
+        <v>45721.3428125</v>
+      </c>
+      <c r="L36" s="10">
+        <v>45721.3428125</v>
+      </c>
+      <c r="M36" s="3"/>
+      <c r="N36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O36" s="8">
+        <v>43.1164615</v>
+      </c>
+      <c r="P36" s="8">
+        <v>12.3868932</v>
+      </c>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F37" s="7">
         <v>3.0</v>
       </c>
-      <c r="G9" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="12">
-        <v>45967.0</v>
-      </c>
-      <c r="L9" s="12">
-        <v>45967.0</v>
-      </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O9" s="10">
-        <v>38.707751</v>
-      </c>
-      <c r="P9" s="10">
-        <v>-9.136592</v>
-      </c>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="14">
-        <v>1004595.0</v>
-      </c>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="11"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="G37" s="7">
+        <v>18.0</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" s="10">
+        <v>45363.0</v>
+      </c>
+      <c r="L37" s="10">
+        <v>45394.0</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="N37" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O37" s="8">
+        <v>39.326234</v>
+      </c>
+      <c r="P37" s="8">
+        <v>-4.838065</v>
+      </c>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F38" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="G38" s="7">
+        <v>18.0</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" s="10">
+        <v>45721.34060185185</v>
+      </c>
+      <c r="L38" s="10">
+        <v>45721.34060185185</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O38" s="8">
+        <v>51.507322</v>
+      </c>
+      <c r="P38" s="8">
+        <v>-0.127647</v>
+      </c>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F39" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="G39" s="7">
+        <v>18.0</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K39" s="10">
+        <v>45716.24576388889</v>
+      </c>
+      <c r="L39" s="10">
+        <v>45716.24576388889</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="N39" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O39" s="8">
+        <v>47.516231</v>
+      </c>
+      <c r="P39" s="8">
+        <v>14.550072</v>
+      </c>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F40" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="G40" s="7">
+        <v>18.0</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K40" s="10">
+        <v>45716.24420138889</v>
+      </c>
+      <c r="L40" s="10">
+        <v>45716.24420138889</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O40" s="8">
+        <v>51.507322</v>
+      </c>
+      <c r="P40" s="8">
+        <v>-0.127647</v>
+      </c>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>17.0</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="12">
-        <v>45817.1974537037</v>
-      </c>
-      <c r="L10" s="12">
-        <v>45817.1974537037</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="N10" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O10" s="10">
-        <v>42.638426</v>
-      </c>
-      <c r="P10" s="10">
-        <v>12.674297</v>
-      </c>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="14">
-        <v>1004595.0</v>
-      </c>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="12">
-        <v>45843.0</v>
-      </c>
-      <c r="L11" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="N11" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O11" s="10">
-        <v>42.638426</v>
-      </c>
-      <c r="P11" s="10">
-        <v>12.674297</v>
-      </c>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="14">
-        <v>1004595.0</v>
-      </c>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="11"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="6" t="s">
+      <c r="E41" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F41" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G41" s="7">
+        <v>18.0</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="I41" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>17.0</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K12" s="12">
-        <v>45814.12819444444</v>
-      </c>
-      <c r="L12" s="12">
-        <v>45814.12819444444</v>
-      </c>
-      <c r="M12" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="N12" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O12" s="10">
-        <v>44.5143191</v>
-      </c>
-      <c r="P12" s="10">
-        <v>11.4075681</v>
-      </c>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="14">
-        <v>1004595.0</v>
-      </c>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="G13" s="9">
-        <v>17.0</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="K13" s="12">
-        <v>45813.15251157407</v>
-      </c>
-      <c r="L13" s="12">
-        <v>45813.15251157407</v>
-      </c>
-      <c r="M13" s="11"/>
-      <c r="N13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O13" s="10">
-        <v>51.523569</v>
-      </c>
-      <c r="P13" s="10">
-        <v>-0.132424</v>
-      </c>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="14">
-        <v>1004595.0</v>
-      </c>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="11"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K14" s="12">
-        <v>45813.13400462963</v>
-      </c>
-      <c r="L14" s="12">
-        <v>45813.13400462963</v>
-      </c>
-      <c r="M14" s="11"/>
-      <c r="N14" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O14" s="10">
-        <v>48.8964618</v>
-      </c>
-      <c r="P14" s="10">
-        <v>2.2363532</v>
-      </c>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="14">
-        <v>1004595.0</v>
-      </c>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="11"/>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="11"/>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="11"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" s="9">
-        <v>17.0</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="K15" s="12">
-        <v>45813.06700231481</v>
-      </c>
-      <c r="L15" s="12">
-        <v>45813.06700231481</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="N15" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O15" s="10">
-        <v>41.8647577</v>
-      </c>
-      <c r="P15" s="10">
-        <v>12.479958</v>
-      </c>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="14">
-        <v>1004595.0</v>
-      </c>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="11"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="G16" s="9">
-        <v>17.0</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="K16" s="12">
-        <v>45803.237280092595</v>
-      </c>
-      <c r="L16" s="12">
-        <v>45803.237280092595</v>
-      </c>
-      <c r="M16" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="N16" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O16" s="10">
-        <v>50.0691209</v>
-      </c>
-      <c r="P16" s="10">
-        <v>19.931866</v>
-      </c>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="14">
-        <v>1004595.0</v>
-      </c>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="11"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F17" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="G17" s="9">
-        <v>17.0</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="12">
-        <v>45797.12290509259</v>
-      </c>
-      <c r="L17" s="12">
-        <v>45797.12290509259</v>
-      </c>
-      <c r="M17" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="N17" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O17" s="10">
-        <v>52.215933</v>
-      </c>
-      <c r="P17" s="10">
-        <v>19.134422</v>
-      </c>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="14">
-        <v>1004595.0</v>
-      </c>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="11"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F18" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="G18" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J18" s="11"/>
-      <c r="K18" s="12">
-        <v>45905.0</v>
-      </c>
-      <c r="L18" s="12">
-        <v>45905.0</v>
-      </c>
-      <c r="M18" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="N18" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O18" s="10">
-        <v>38.707751</v>
-      </c>
-      <c r="P18" s="10">
-        <v>-9.136592</v>
-      </c>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="14">
-        <v>1004595.0</v>
-      </c>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="11"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="G19" s="9">
-        <v>17.0</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="12">
-        <v>45797.07334490741</v>
-      </c>
-      <c r="L19" s="12">
-        <v>45797.07334490741</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="N19" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O19" s="10">
-        <v>38.707751</v>
-      </c>
-      <c r="P19" s="10">
-        <v>-9.136592</v>
-      </c>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="14">
-        <v>1004595.0</v>
-      </c>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="11"/>
-      <c r="AC19" s="11"/>
-      <c r="AD19" s="11"/>
-      <c r="AE19" s="11"/>
-      <c r="AF19" s="11"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="G20" s="9">
-        <v>17.0</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="J20" s="11"/>
-      <c r="K20" s="12">
-        <v>45797.07288194444</v>
-      </c>
-      <c r="L20" s="12">
-        <v>45797.07288194444</v>
-      </c>
-      <c r="M20" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="N20" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O20" s="10">
-        <v>51.507322</v>
-      </c>
-      <c r="P20" s="10">
-        <v>-0.127647</v>
-      </c>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="14">
-        <v>1004595.0</v>
-      </c>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="11"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F21" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="G21" s="9">
-        <v>18.0</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="12">
-        <v>45797.072546296295</v>
-      </c>
-      <c r="L21" s="12">
-        <v>45797.072546296295</v>
-      </c>
-      <c r="M21" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="N21" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O21" s="10">
-        <v>60.128161</v>
-      </c>
-      <c r="P21" s="10">
-        <v>18.643501</v>
-      </c>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="14">
-        <v>1004595.0</v>
-      </c>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="11"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F22" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="G22" s="9">
-        <v>17.0</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="J22" s="11"/>
-      <c r="K22" s="12">
-        <v>45797.07171296296</v>
-      </c>
-      <c r="L22" s="12">
-        <v>45797.07171296296</v>
-      </c>
-      <c r="M22" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="N22" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O22" s="10">
-        <v>52.215933</v>
-      </c>
-      <c r="P22" s="10">
-        <v>19.134422</v>
-      </c>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="14">
-        <v>1004595.0</v>
-      </c>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="11"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="G23" s="9">
-        <v>17.0</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="K23" s="12">
-        <v>45797.07144675926</v>
-      </c>
-      <c r="L23" s="12">
-        <v>45797.07144675926</v>
-      </c>
-      <c r="M23" s="11"/>
-      <c r="N23" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O23" s="10">
-        <v>40.4494508</v>
-      </c>
-      <c r="P23" s="10">
-        <v>-3.9935704</v>
-      </c>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="14">
-        <v>1004595.0</v>
-      </c>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="11"/>
-      <c r="AD23" s="11"/>
-      <c r="AE23" s="11"/>
-      <c r="AF23" s="11"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="F24" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="G24" s="9">
-        <v>17.0</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="J24" s="11"/>
-      <c r="K24" s="12">
-        <v>45797.070868055554</v>
-      </c>
-      <c r="L24" s="12">
-        <v>45797.070868055554</v>
-      </c>
-      <c r="M24" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="N24" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O24" s="10">
-        <v>52.215933</v>
-      </c>
-      <c r="P24" s="10">
-        <v>19.134422</v>
-      </c>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="14">
-        <v>1004595.0</v>
-      </c>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="11"/>
-      <c r="AD24" s="11"/>
-      <c r="AE24" s="11"/>
-      <c r="AF24" s="11"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F25" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="J25" s="11"/>
-      <c r="K25" s="12">
-        <v>45793.07349537037</v>
-      </c>
-      <c r="L25" s="12">
-        <v>45793.07349537037</v>
-      </c>
-      <c r="M25" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="N25" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O25" s="10">
-        <v>52.865196</v>
-      </c>
-      <c r="P25" s="10">
-        <v>-7.97946</v>
-      </c>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="14">
-        <v>1004595.0</v>
-      </c>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="11"/>
-      <c r="AA25" s="11"/>
-      <c r="AB25" s="11"/>
-      <c r="AC25" s="11"/>
-      <c r="AD25" s="11"/>
-      <c r="AE25" s="11"/>
-      <c r="AF25" s="11"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F26" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="K26" s="12">
-        <v>45791.34453703704</v>
-      </c>
-      <c r="L26" s="12">
-        <v>45791.34453703704</v>
-      </c>
-      <c r="M26" s="11"/>
-      <c r="N26" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O26" s="10">
-        <v>51.511358</v>
-      </c>
-      <c r="P26" s="10">
-        <v>-0.082295</v>
-      </c>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="14">
-        <v>1004595.0</v>
-      </c>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="11"/>
-      <c r="AB26" s="11"/>
-      <c r="AC26" s="11"/>
-      <c r="AD26" s="11"/>
-      <c r="AE26" s="11"/>
-      <c r="AF26" s="11"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F27" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="G27" s="9">
-        <v>17.0</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J27" s="11"/>
-      <c r="K27" s="12">
-        <v>45842.0</v>
-      </c>
-      <c r="L27" s="12">
-        <v>45842.0</v>
-      </c>
-      <c r="M27" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="N27" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O27" s="10">
-        <v>42.638426</v>
-      </c>
-      <c r="P27" s="10">
-        <v>12.674297</v>
-      </c>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="14">
-        <v>1004595.0</v>
-      </c>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="11"/>
-      <c r="AB27" s="11"/>
-      <c r="AC27" s="11"/>
-      <c r="AD27" s="11"/>
-      <c r="AE27" s="11"/>
-      <c r="AF27" s="11"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="F28" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="G28" s="9">
-        <v>17.0</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="J28" s="11"/>
-      <c r="K28" s="12">
-        <v>45770.20568287037</v>
-      </c>
-      <c r="L28" s="12">
-        <v>45770.20568287037</v>
-      </c>
-      <c r="M28" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="N28" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O28" s="10">
-        <v>52.215933</v>
-      </c>
-      <c r="P28" s="10">
-        <v>19.134422</v>
-      </c>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="14">
-        <v>1004595.0</v>
-      </c>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="11"/>
-      <c r="AB28" s="11"/>
-      <c r="AC28" s="11"/>
-      <c r="AD28" s="11"/>
-      <c r="AE28" s="11"/>
-      <c r="AF28" s="11"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="F29" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="G29" s="9">
-        <v>17.0</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="J29" s="11"/>
-      <c r="K29" s="12">
-        <v>45756.03760416667</v>
-      </c>
-      <c r="L29" s="12">
-        <v>45756.03760416667</v>
-      </c>
-      <c r="M29" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="N29" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O29" s="10">
-        <v>52.215933</v>
-      </c>
-      <c r="P29" s="10">
-        <v>19.134422</v>
-      </c>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="14">
-        <v>1004595.0</v>
-      </c>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="11"/>
-      <c r="AA29" s="11"/>
-      <c r="AB29" s="11"/>
-      <c r="AC29" s="11"/>
-      <c r="AD29" s="11"/>
-      <c r="AE29" s="11"/>
-      <c r="AF29" s="11"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="F30" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="G30" s="9">
-        <v>18.0</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="J30" s="11"/>
-      <c r="K30" s="12">
-        <v>45754.40056712963</v>
-      </c>
-      <c r="L30" s="12">
-        <v>45754.40056712963</v>
-      </c>
-      <c r="M30" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="N30" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O30" s="10">
-        <v>51.507322</v>
-      </c>
-      <c r="P30" s="10">
-        <v>-0.127647</v>
-      </c>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="14">
-        <v>1004595.0</v>
-      </c>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="11"/>
-      <c r="AA30" s="11"/>
-      <c r="AB30" s="11"/>
-      <c r="AC30" s="11"/>
-      <c r="AD30" s="11"/>
-      <c r="AE30" s="11"/>
-      <c r="AF30" s="11"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="F31" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="G31" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="K31" s="12">
-        <v>45754.35631944444</v>
-      </c>
-      <c r="L31" s="12">
-        <v>45754.35631944444</v>
-      </c>
-      <c r="M31" s="11"/>
-      <c r="N31" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O31" s="10">
-        <v>52.340691</v>
-      </c>
-      <c r="P31" s="10">
-        <v>4.8584077</v>
-      </c>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="14">
-        <v>1004595.0</v>
-      </c>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="11"/>
-      <c r="AA31" s="11"/>
-      <c r="AB31" s="11"/>
-      <c r="AC31" s="11"/>
-      <c r="AD31" s="11"/>
-      <c r="AE31" s="11"/>
-      <c r="AF31" s="11"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F32" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="G32" s="9">
-        <v>18.0</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="K32" s="12">
-        <v>45754.32711805555</v>
-      </c>
-      <c r="L32" s="12">
-        <v>45754.32711805555</v>
-      </c>
-      <c r="M32" s="11"/>
-      <c r="N32" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O32" s="10">
-        <v>52.340691</v>
-      </c>
-      <c r="P32" s="10">
-        <v>4.8584077</v>
-      </c>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="14">
-        <v>1004595.0</v>
-      </c>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="11"/>
-      <c r="AA32" s="11"/>
-      <c r="AB32" s="11"/>
-      <c r="AC32" s="11"/>
-      <c r="AD32" s="11"/>
-      <c r="AE32" s="11"/>
-      <c r="AF32" s="11"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F33" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="G33" s="9">
-        <v>18.0</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="K33" s="12">
-        <v>45754.214583333334</v>
-      </c>
-      <c r="L33" s="12">
-        <v>45754.214583333334</v>
-      </c>
-      <c r="M33" s="11"/>
-      <c r="N33" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O33" s="10">
-        <v>52.340691</v>
-      </c>
-      <c r="P33" s="10">
-        <v>4.8584077</v>
-      </c>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="14">
-        <v>1004595.0</v>
-      </c>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="11"/>
-      <c r="Z33" s="11"/>
-      <c r="AA33" s="11"/>
-      <c r="AB33" s="11"/>
-      <c r="AC33" s="11"/>
-      <c r="AD33" s="11"/>
-      <c r="AE33" s="11"/>
-      <c r="AF33" s="11"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F34" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="G34" s="9">
-        <v>18.0</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="K34" s="12">
-        <v>45744.104363425926</v>
-      </c>
-      <c r="L34" s="12">
-        <v>45744.104363425926</v>
-      </c>
-      <c r="M34" s="11"/>
-      <c r="N34" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O34" s="10">
-        <v>39.326234</v>
-      </c>
-      <c r="P34" s="10">
-        <v>-4.838065</v>
-      </c>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="14">
-        <v>1004595.0</v>
-      </c>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="11"/>
-      <c r="AA34" s="11"/>
-      <c r="AB34" s="11"/>
-      <c r="AC34" s="11"/>
-      <c r="AD34" s="11"/>
-      <c r="AE34" s="11"/>
-      <c r="AF34" s="11"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F35" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="G35" s="9">
-        <v>18.0</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="J35" s="13"/>
-      <c r="K35" s="12">
-        <v>45723.09462962963</v>
-      </c>
-      <c r="L35" s="12">
-        <v>45723.09462962963</v>
-      </c>
-      <c r="M35" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="N35" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O35" s="10">
-        <v>39.326234</v>
-      </c>
-      <c r="P35" s="10">
-        <v>-4.838065</v>
-      </c>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="14">
-        <v>1004595.0</v>
-      </c>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="11"/>
-      <c r="X35" s="11"/>
-      <c r="Y35" s="11"/>
-      <c r="Z35" s="11"/>
-      <c r="AA35" s="11"/>
-      <c r="AB35" s="11"/>
-      <c r="AC35" s="11"/>
-      <c r="AD35" s="11"/>
-      <c r="AE35" s="11"/>
-      <c r="AF35" s="11"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="F36" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="G36" s="9">
-        <v>18.0</v>
-      </c>
-      <c r="H36" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="K36" s="12">
-        <v>45721.3428125</v>
-      </c>
-      <c r="L36" s="12">
-        <v>45721.3428125</v>
-      </c>
-      <c r="M36" s="11"/>
-      <c r="N36" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O36" s="10">
-        <v>43.1164615</v>
-      </c>
-      <c r="P36" s="10">
-        <v>12.3868932</v>
-      </c>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="14">
-        <v>1004595.0</v>
-      </c>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
-      <c r="W36" s="11"/>
-      <c r="X36" s="11"/>
-      <c r="Y36" s="11"/>
-      <c r="Z36" s="11"/>
-      <c r="AA36" s="11"/>
-      <c r="AB36" s="11"/>
-      <c r="AC36" s="11"/>
-      <c r="AD36" s="11"/>
-      <c r="AE36" s="11"/>
-      <c r="AF36" s="11"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F37" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="G37" s="9">
-        <v>18.0</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="J37" s="11"/>
-      <c r="K37" s="12">
-        <v>45363.0</v>
-      </c>
-      <c r="L37" s="12">
-        <v>45394.0</v>
-      </c>
-      <c r="M37" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="N37" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O37" s="10">
-        <v>39.326234</v>
-      </c>
-      <c r="P37" s="10">
-        <v>-4.838065</v>
-      </c>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="14">
-        <v>1004595.0</v>
-      </c>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="11"/>
-      <c r="V37" s="11"/>
-      <c r="W37" s="11"/>
-      <c r="X37" s="11"/>
-      <c r="Y37" s="11"/>
-      <c r="Z37" s="11"/>
-      <c r="AA37" s="11"/>
-      <c r="AB37" s="11"/>
-      <c r="AC37" s="11"/>
-      <c r="AD37" s="11"/>
-      <c r="AE37" s="11"/>
-      <c r="AF37" s="11"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="8" t="s">
+      <c r="J41" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F38" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="G38" s="9">
-        <v>18.0</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="J38" s="11"/>
-      <c r="K38" s="12">
-        <v>45721.34060185185</v>
-      </c>
-      <c r="L38" s="12">
-        <v>45721.34060185185</v>
-      </c>
-      <c r="M38" s="13" t="s">
+      <c r="K41" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="N38" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O38" s="10">
-        <v>51.507322</v>
-      </c>
-      <c r="P38" s="10">
-        <v>-0.127647</v>
-      </c>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="14">
-        <v>1004595.0</v>
-      </c>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="11"/>
-      <c r="V38" s="11"/>
-      <c r="W38" s="11"/>
-      <c r="X38" s="11"/>
-      <c r="Y38" s="11"/>
-      <c r="Z38" s="11"/>
-      <c r="AA38" s="11"/>
-      <c r="AB38" s="11"/>
-      <c r="AC38" s="11"/>
-      <c r="AD38" s="11"/>
-      <c r="AE38" s="11"/>
-      <c r="AF38" s="11"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="F39" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="G39" s="9">
-        <v>18.0</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="J39" s="11"/>
-      <c r="K39" s="12">
-        <v>45716.24576388889</v>
-      </c>
-      <c r="L39" s="12">
-        <v>45716.24576388889</v>
-      </c>
-      <c r="M39" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="N39" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O39" s="10">
-        <v>47.516231</v>
-      </c>
-      <c r="P39" s="10">
-        <v>14.550072</v>
-      </c>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="14">
-        <v>1004595.0</v>
-      </c>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11"/>
-      <c r="U39" s="11"/>
-      <c r="V39" s="11"/>
-      <c r="W39" s="11"/>
-      <c r="X39" s="11"/>
-      <c r="Y39" s="11"/>
-      <c r="Z39" s="11"/>
-      <c r="AA39" s="11"/>
-      <c r="AB39" s="11"/>
-      <c r="AC39" s="11"/>
-      <c r="AD39" s="11"/>
-      <c r="AE39" s="11"/>
-      <c r="AF39" s="11"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="F40" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="G40" s="9">
-        <v>18.0</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="J40" s="11"/>
-      <c r="K40" s="12">
-        <v>45716.24420138889</v>
-      </c>
-      <c r="L40" s="12">
-        <v>45716.24420138889</v>
-      </c>
-      <c r="M40" s="13" t="s">
+      <c r="L41" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="N40" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O40" s="10">
-        <v>51.507322</v>
-      </c>
-      <c r="P40" s="10">
-        <v>-0.127647</v>
-      </c>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="14">
-        <v>1004595.0</v>
-      </c>
-      <c r="S40" s="11"/>
-      <c r="T40" s="11"/>
-      <c r="U40" s="11"/>
-      <c r="V40" s="11"/>
-      <c r="W40" s="11"/>
-      <c r="X40" s="11"/>
-      <c r="Y40" s="11"/>
-      <c r="Z40" s="11"/>
-      <c r="AA40" s="11"/>
-      <c r="AB40" s="11"/>
-      <c r="AC40" s="11"/>
-      <c r="AD40" s="11"/>
-      <c r="AE40" s="11"/>
-      <c r="AF40" s="11"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="F41" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="G41" s="9">
-        <v>18.0</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="J41" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="K41" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="L41" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="M41" s="11"/>
-      <c r="N41" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O41" s="10">
+      <c r="M41" s="3"/>
+      <c r="N41" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O41" s="8">
         <v>51.523229</v>
       </c>
-      <c r="P41" s="10">
+      <c r="P41" s="8">
         <v>-0.120098</v>
       </c>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="14">
-        <v>1004595.0</v>
-      </c>
-      <c r="S41" s="11"/>
-      <c r="T41" s="11"/>
-      <c r="U41" s="11"/>
-      <c r="V41" s="11"/>
-      <c r="W41" s="11"/>
-      <c r="X41" s="11"/>
-      <c r="Y41" s="11"/>
-      <c r="Z41" s="11"/>
-      <c r="AA41" s="11"/>
-      <c r="AB41" s="11"/>
-      <c r="AC41" s="11"/>
-      <c r="AD41" s="11"/>
-      <c r="AE41" s="11"/>
-      <c r="AF41" s="11"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="M2"/>
     <hyperlink r:id="rId2" ref="M3"/>
     <hyperlink r:id="rId3" ref="M4"/>
-    <hyperlink r:id="rId4" ref="M10"/>
-    <hyperlink r:id="rId5" ref="M11"/>
-    <hyperlink r:id="rId6" ref="M12"/>
-    <hyperlink r:id="rId7" ref="M15"/>
-    <hyperlink r:id="rId8" ref="M16"/>
-    <hyperlink r:id="rId9" ref="M17"/>
-    <hyperlink r:id="rId10" ref="M18"/>
-    <hyperlink r:id="rId11" ref="M19"/>
-    <hyperlink r:id="rId12" ref="M20"/>
-    <hyperlink r:id="rId13" ref="M21"/>
-    <hyperlink r:id="rId14" ref="M22"/>
-    <hyperlink r:id="rId15" ref="M24"/>
-    <hyperlink r:id="rId16" ref="M25"/>
-    <hyperlink r:id="rId17" ref="M27"/>
-    <hyperlink r:id="rId18" ref="M28"/>
-    <hyperlink r:id="rId19" ref="M29"/>
-    <hyperlink r:id="rId20" ref="M30"/>
-    <hyperlink r:id="rId21" ref="M35"/>
-    <hyperlink r:id="rId22" ref="M37"/>
-    <hyperlink r:id="rId23" ref="M38"/>
-    <hyperlink r:id="rId24" ref="M39"/>
-    <hyperlink r:id="rId25" ref="M40"/>
+    <hyperlink r:id="rId4" ref="M5"/>
+    <hyperlink r:id="rId5" ref="M6"/>
+    <hyperlink r:id="rId6" ref="M7"/>
+    <hyperlink r:id="rId7" ref="M8"/>
+    <hyperlink r:id="rId8" ref="M10"/>
+    <hyperlink r:id="rId9" ref="M11"/>
+    <hyperlink r:id="rId10" ref="M12"/>
+    <hyperlink r:id="rId11" ref="M15"/>
+    <hyperlink r:id="rId12" ref="M17"/>
+    <hyperlink r:id="rId13" ref="M18"/>
+    <hyperlink r:id="rId14" ref="M19"/>
+    <hyperlink r:id="rId15" ref="M20"/>
+    <hyperlink r:id="rId16" ref="M21"/>
+    <hyperlink r:id="rId17" ref="M22"/>
+    <hyperlink r:id="rId18" ref="M24"/>
+    <hyperlink r:id="rId19" ref="M25"/>
+    <hyperlink r:id="rId20" ref="M27"/>
+    <hyperlink r:id="rId21" ref="M28"/>
+    <hyperlink r:id="rId22" ref="M29"/>
+    <hyperlink r:id="rId23" ref="M30"/>
+    <hyperlink r:id="rId24" ref="M35"/>
+    <hyperlink r:id="rId25" ref="M37"/>
+    <hyperlink r:id="rId26" ref="M38"/>
+    <hyperlink r:id="rId27" ref="M39"/>
+    <hyperlink r:id="rId28" ref="M40"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId26"/>
+  <drawing r:id="rId29"/>
 </worksheet>
 </file>
 
@@ -3935,33 +3619,33 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="19" t="s">
-        <v>201</v>
+      <c r="A1" s="20" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="11" t="s">
-        <v>202</v>
+      <c r="A2" s="21" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>203</v>
+      <c r="A3" s="21" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="11" t="s">
-        <v>204</v>
+      <c r="A4" s="21" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="11" t="s">
-        <v>205</v>
+      <c r="A5" s="21" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="11" t="s">
-        <v>206</v>
+      <c r="A6" s="21" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
@@ -4982,83 +4666,83 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="21">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="21">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="21">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="21">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="11">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="11">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>213</v>
-      </c>
-    </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="11">
+      <c r="A8" s="21">
         <v>7.0</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>214</v>
+      <c r="B8" s="21" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="11">
+      <c r="A9" s="21">
         <v>8.0</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>215</v>
+      <c r="B9" s="21" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="11">
+      <c r="A10" s="21">
         <v>9.0</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>216</v>
+      <c r="B10" s="21" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1"/>
@@ -6075,166 +5759,166 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="21">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="11" t="s">
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="21">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="21">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="21">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="21">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="21">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="21">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="21">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="21">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="21">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="11" t="s">
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="21">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="11" t="s">
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="21">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="11" t="s">
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="21">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="11">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="11" t="s">
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="21">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="11">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="11" t="s">
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="21">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="11">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="11" t="s">
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="21">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>223</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="11">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="11">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="11">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="11">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="11">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="11">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="11">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="11">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="11">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="11">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="11">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -7239,28 +6923,28 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="19" t="s">
-        <v>201</v>
+      <c r="A1" s="20" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="11" t="s">
-        <v>236</v>
+      <c r="A2" s="21" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>237</v>
+      <c r="A3" s="21" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="11" t="s">
-        <v>238</v>
+      <c r="A4" s="21" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="11" t="s">
-        <v>239</v>
+      <c r="A5" s="21" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1"/>

--- a/resources/excel/example.xlsx
+++ b/resources/excel/example.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="example" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="71">
   <si>
     <t>activity_title</t>
   </si>
@@ -28,12 +28,12 @@
     <t>description</t>
   </si>
   <si>
+    <t>theme_comma_separated_ids</t>
+  </si>
+  <si>
     <t>audience_comma_separated_ids</t>
   </si>
   <si>
-    <t>theme_comma_separated_ids</t>
-  </si>
-  <si>
     <t>country</t>
   </si>
   <si>
@@ -103,86 +103,154 @@
     <t>creator_id</t>
   </si>
   <si>
-    <t>Hackathon</t>
-  </si>
-  <si>
-    <t>Coding - supporting by schools</t>
+    <t>GENÇBİZZ - ONLİNE MENTOR EĞİTİMİ</t>
+  </si>
+  <si>
+    <t>JA TÜRKİYE</t>
   </si>
   <si>
     <t>NGO</t>
   </si>
   <si>
+    <t>invite-online</t>
+  </si>
+  <si>
+    <t>Company Program online mentor training</t>
+  </si>
+  <si>
+    <t>8,18,19</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>İSTANBUL - ATAŞEHİR - Online</t>
+  </si>
+  <si>
+    <t>https://gencbasari.org/</t>
+  </si>
+  <si>
+    <t>zafer.isildakli@gencbasari.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GENÇBİZZ LİSE GİRİŞİMCİLİK ZİRVESİ </t>
+  </si>
+  <si>
     <t>invite-in-person</t>
   </si>
   <si>
-    <t>Hackathon, programming marathon, on November 15 at ZSO No. 8 in Gdynia (ul. Wiczlińska 50a) was an opportunity for six participating schools to present their skills in cooperation with artificial intelligence.</t>
-  </si>
-  <si>
-    <t>1, 3, 4, 11, 17</t>
-  </si>
-  <si>
-    <t>PL</t>
-  </si>
-  <si>
-    <t>pl</t>
-  </si>
-  <si>
-    <t>ZSO nr 8 w Gdyni (ul. Wiczlińska 50a)</t>
-  </si>
-  <si>
-    <t>https://www.gdynia.pl/mieszkaniec/aktualnosci,4018/mlodzi-programisci-rywalizowali-w-gdyni,585801</t>
-  </si>
-  <si>
-    <t>amelia@koalicjadlainnowacji.pl</t>
-  </si>
-  <si>
-    <t>3 days</t>
-  </si>
-  <si>
-    <t>SHE - future for girls in technologies</t>
-  </si>
-  <si>
-    <t>School dof girpli in technologies</t>
-  </si>
-  <si>
-    <t>open-in-person</t>
-  </si>
-  <si>
-    <t>new technologies for girls, an event dedicated to girls and the professions of the future in technology</t>
-  </si>
-  <si>
-    <t>Olivia Star Hotel, Gdańsk</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/TEBLiceumTechnikumGdynia/posts/girls-in-digital-21-marca-nasze-uczennice-z-kierunk%C3%B3w-programistycznych-i-inform/1205590121580059/</t>
-  </si>
-  <si>
-    <t>1 day</t>
-  </si>
-  <si>
-    <t>Koderek - introcuction to Cooding</t>
-  </si>
-  <si>
-    <t>Coding for teachers and kids</t>
-  </si>
-  <si>
-    <t>event for teachers and children in the field of new technologies and families. The largest event promoting coding in Poland</t>
-  </si>
-  <si>
-    <t>Ruskowy Bród 19, Warszawa</t>
-  </si>
-  <si>
-    <t>https://koderek.edu.pl/</t>
+    <t>Company Program high school entrepreneurship summit</t>
+  </si>
+  <si>
+    <t>8,9,18</t>
+  </si>
+  <si>
+    <t>TRABZON - ORTAHİSAR</t>
+  </si>
+  <si>
+    <t>İSTANBUL - BAHÇELİEVLER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESKİŞEHİR - ODUNPAZARI </t>
+  </si>
+  <si>
+    <t>GENÇBİZZ ÇEVRİMİÇİ ÖĞRETMEN BİLGİLENDİRME TOPLANTISI</t>
+  </si>
+  <si>
+    <t>Company Program training of the trainers</t>
+  </si>
+  <si>
+    <t>SÜRDÜRÜLEBİLİR İNOVASYON KAMPI</t>
+  </si>
+  <si>
+    <t>Innovation camp</t>
+  </si>
+  <si>
+    <t>İSTANBUL - ÇEKMEKÖY</t>
+  </si>
+  <si>
+    <t>GENÇBİZZ ÇEVRİMİÇİ ÖĞRENCİ BİLGİLENDİRME TOPLANTISI</t>
+  </si>
+  <si>
+    <t>Company Program Trainings</t>
+  </si>
+  <si>
+    <t>GENÇBİZZ ÖĞRETMEN EĞİTİMİ - İSTANBUL</t>
+  </si>
+  <si>
+    <t>İSTANBUL - ESENYURT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">İSTANBUL - ATAŞEHİR </t>
+  </si>
+  <si>
+    <t>SAHA BENİM İŞİM PROGRAMI</t>
+  </si>
+  <si>
+    <t>Education of vocational high school students</t>
+  </si>
+  <si>
+    <t>MANİSA - SOMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GENÇBİZZ E-TALKS - ÇEVRİMİÇİ - AVNİ BİLAL DEMİRTAŞ / YAPAY ZEKA VE GİRİŞİMCİLİK </t>
+  </si>
+  <si>
+    <t>Company Program Inspiring entrepreneurship examples and meetups online</t>
+  </si>
+  <si>
+    <t>GENÇBİZZ E-TALKS - ÇEVRİMİÇİ - EREN HÜKÜMDAR / YAPAY ZEKA VE GELECEK</t>
+  </si>
+  <si>
+    <t>GENÇBİZZ E-TALKS - ÇEVRİMİÇİ - ERDİNÇ KAZAK / GİRİŞİMCİLER İÇİN FİNANSAL OKURYAZARLIK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GENÇBİZZ E-TALKS - ÇEVRİMİÇİ - SÜHA SOYDAN / GİRİŞİMCİLİK VE YATIRIMCILIK EKOSİSTEMİ </t>
+  </si>
+  <si>
+    <t>GENÇBİZZ E-TALKS - ÇEVRİMİÇİ - FEYZA NARLI / YENİ NESİL MESLEKLER</t>
+  </si>
+  <si>
+    <t>GENÇBİZZ E-TALKS - ÇEVRİMİÇİ - GONCA AK / ETİK VE UYUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GENÇBİZZ - ÇEVRİMİÇİ - HANDE BALOĞLU TOKER İLE SÜRDÜRÜLEBİLİR GELECEK &amp; SÜRDÜRÜLEBİLİR ŞİRKET SOHBETİ </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Ge</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="13.0"/>
+      </rPr>
+      <t>nçBizzTech Yapay Zeka Eğitimleri</t>
+    </r>
+  </si>
+  <si>
+    <t>Artificial Intelligence Education for High School Students</t>
+  </si>
+  <si>
+    <t>1,3,4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="D/M/YYYY"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="165" formatCode="d\.m\.yyyy"/>
+    <numFmt numFmtId="166" formatCode="D/M/YYYY"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -191,25 +259,18 @@
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
-      <sz val="10.0"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <color theme="1"/>
@@ -218,12 +279,26 @@
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
-      <color theme="10"/>
-      <name val="Arial"/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,14 +311,8 @@
         <bgColor rgb="FFFCE5CD"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border/>
     <border>
       <left/>
@@ -251,39 +320,79 @@
       <top/>
       <bottom/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="17" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -494,28 +603,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="66.25"/>
-    <col customWidth="1" min="2" max="2" width="38.88"/>
-    <col customWidth="1" min="3" max="3" width="35.63"/>
-    <col customWidth="1" min="4" max="4" width="91.25"/>
-    <col customWidth="1" min="5" max="5" width="31.13"/>
-    <col customWidth="1" min="6" max="6" width="26.25"/>
-    <col customWidth="1" min="7" max="7" width="37.88"/>
-    <col customWidth="1" min="8" max="9" width="11.0"/>
-    <col customWidth="1" min="10" max="10" width="42.25"/>
-    <col customWidth="1" min="11" max="14" width="11.0"/>
-    <col customWidth="1" min="15" max="15" width="30.25"/>
-    <col customWidth="1" min="16" max="30" width="11.0"/>
+    <col customWidth="1" min="1" max="1" width="120.63"/>
+    <col customWidth="1" min="5" max="5" width="67.88"/>
+    <col customWidth="1" min="10" max="10" width="32.5"/>
+    <col customWidth="1" min="13" max="13" width="23.5"/>
+    <col customWidth="1" min="14" max="14" width="36.0"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,10 +662,10 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
@@ -607,203 +708,1604 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="2">
+      <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="G2" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="K2" s="6">
-        <v>45611.0</v>
+        <v>45635.0</v>
       </c>
       <c r="L2" s="6">
-        <v>45613.0</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" s="7" t="s">
+        <v>45635.0</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="9">
+        <v>91.0</v>
+      </c>
+      <c r="P2" s="10">
+        <v>29.12778</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>40.98333</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>317342.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="6">
+        <v>45664.0</v>
+      </c>
+      <c r="L3" s="6">
+        <v>45664.0</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="9">
+        <v>51.0</v>
+      </c>
+      <c r="P3" s="10">
+        <v>29.12778</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>40.98333</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>317342.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="6">
+        <v>45685.0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>45685.0</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="9">
+        <v>95.0</v>
+      </c>
+      <c r="P4" s="10">
+        <v>29.12778</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>40.98333</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>317342.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="6">
+        <v>45698.0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>45698.0</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="9">
+        <v>63.0</v>
+      </c>
+      <c r="P5" s="10">
+        <v>29.12778</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>40.98333</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>317342.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="4">
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="6">
+        <v>45700.0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>45700.0</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="9">
+        <v>358.0</v>
+      </c>
+      <c r="P6" s="10">
+        <v>39.717</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>41.0</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>317342.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="6">
+        <v>45729.0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>45729.0</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="9">
+        <v>654.0</v>
+      </c>
+      <c r="P7" s="10">
+        <v>28.8598</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>41.0023</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>317342.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="6">
+        <v>45755.0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>45755.0</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="9">
+        <v>231.0</v>
+      </c>
+      <c r="P8" s="10">
+        <v>30.5222</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>39.7553</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>317342.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="12">
+        <v>45580.0</v>
+      </c>
+      <c r="L9" s="12">
+        <v>45580.0</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="9">
+        <v>150.0</v>
+      </c>
+      <c r="P9" s="10">
+        <v>29.12778</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>40.98333</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>317342.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="12">
+        <v>45582.0</v>
+      </c>
+      <c r="L10" s="12">
+        <v>45582.0</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="9">
+        <v>150.0</v>
+      </c>
+      <c r="P10" s="10">
+        <v>29.12778</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>40.98333</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>317342.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="12">
+        <v>45587.0</v>
+      </c>
+      <c r="L11" s="12">
+        <v>45587.0</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" s="9">
+        <v>150.0</v>
+      </c>
+      <c r="P11" s="10">
+        <v>29.12778</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>40.98333</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>317342.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="12">
+        <v>45589.0</v>
+      </c>
+      <c r="L12" s="12">
+        <v>45589.0</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" s="9">
+        <v>150.0</v>
+      </c>
+      <c r="P12" s="10">
+        <v>29.12778</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>40.98333</v>
+      </c>
+      <c r="AD12" s="5">
+        <v>317342.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="12">
+        <v>45596.0</v>
+      </c>
+      <c r="L13" s="12">
+        <v>45596.0</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O13" s="9">
+        <v>150.0</v>
+      </c>
+      <c r="P13" s="10">
+        <v>29.12778</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>40.98333</v>
+      </c>
+      <c r="AD13" s="5">
+        <v>317342.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="12">
+        <v>45601.0</v>
+      </c>
+      <c r="L14" s="12">
+        <v>45601.0</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="9">
+        <v>150.0</v>
+      </c>
+      <c r="P14" s="10">
+        <v>29.12778</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>40.98333</v>
+      </c>
+      <c r="AD14" s="5">
+        <v>317342.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="12">
+        <v>45603.0</v>
+      </c>
+      <c r="L15" s="12">
+        <v>45603.0</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" s="9">
+        <v>150.0</v>
+      </c>
+      <c r="P15" s="10">
+        <v>29.12778</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>40.98333</v>
+      </c>
+      <c r="AD15" s="5">
+        <v>317342.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="12">
+        <v>45607.0</v>
+      </c>
+      <c r="L16" s="12">
+        <v>45607.0</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" s="9">
+        <v>150.0</v>
+      </c>
+      <c r="P16" s="10">
+        <v>29.12778</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>40.98333</v>
+      </c>
+      <c r="AD16" s="5">
+        <v>317342.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="12">
+        <v>45618.0</v>
+      </c>
+      <c r="L17" s="12">
+        <v>45618.0</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O17" s="9">
+        <v>135.0</v>
+      </c>
+      <c r="P17" s="10">
+        <v>29.17861</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>41.03694</v>
+      </c>
+      <c r="AD17" s="5">
+        <v>317342.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="12">
+        <v>45614.0</v>
+      </c>
+      <c r="L18" s="12">
+        <v>45614.0</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" s="9">
+        <v>600.0</v>
+      </c>
+      <c r="P18" s="10">
+        <v>29.12778</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>40.98333</v>
+      </c>
+      <c r="AD18" s="5">
+        <v>317342.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K19" s="12">
+        <v>45629.0</v>
+      </c>
+      <c r="L19" s="12">
+        <v>45629.0</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="9">
         <v>300.0</v>
       </c>
-      <c r="P2" s="8">
-        <v>18.434727</v>
-      </c>
-      <c r="Q2" s="8">
-        <v>54.493443</v>
-      </c>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4">
-        <v>180.0</v>
-      </c>
-      <c r="W2" s="4">
-        <v>180.0</v>
-      </c>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="4" t="s">
+      <c r="P19" s="10">
+        <v>28.68</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>41.0342</v>
+      </c>
+      <c r="AD19" s="5">
+        <v>317342.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AD2" s="4"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="E20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="12">
+        <v>45632.0</v>
+      </c>
+      <c r="L20" s="12">
+        <v>45632.0</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20" s="9">
+        <v>400.0</v>
+      </c>
+      <c r="P20" s="10">
+        <v>29.12778</v>
+      </c>
+      <c r="Q20" s="10">
+        <v>40.98333</v>
+      </c>
+      <c r="AD20" s="5">
+        <v>317342.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="G21" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21" s="6">
+        <v>45402.0</v>
+      </c>
+      <c r="L21" s="6">
+        <v>45402.0</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21" s="9">
+        <v>110.0</v>
+      </c>
+      <c r="P21" s="10">
+        <v>27.60889</v>
+      </c>
+      <c r="Q21" s="10">
+        <v>39.18833</v>
+      </c>
+      <c r="AD21" s="5">
+        <v>317342.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="10" t="s">
+      <c r="G22" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="12">
-        <v>45737.0</v>
-      </c>
-      <c r="L3" s="12">
-        <v>45737.0</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="11">
-        <v>300.0</v>
-      </c>
-      <c r="P3" s="14">
-        <v>104.678123</v>
-      </c>
-      <c r="Q3" s="14">
-        <v>-2.914142</v>
-      </c>
-      <c r="V3" s="11">
-        <v>200.0</v>
-      </c>
-      <c r="W3" s="11">
-        <v>100.0</v>
-      </c>
-      <c r="AC3" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="K22" s="13">
+        <v>45692.0</v>
+      </c>
+      <c r="L22" s="13">
+        <v>45692.0</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O22" s="14">
+        <v>505.0</v>
+      </c>
+      <c r="P22" s="10">
+        <v>29.12778</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>40.98333</v>
+      </c>
+      <c r="AD22" s="5">
+        <v>317342.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="10" t="s">
+      <c r="G23" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="12">
-        <v>45773.0</v>
-      </c>
-      <c r="L4" s="12">
-        <v>45773.0</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="11">
-        <v>1000.0</v>
-      </c>
-      <c r="P4" s="14">
-        <v>21.057735</v>
-      </c>
-      <c r="Q4" s="14">
-        <v>52.344109</v>
-      </c>
-      <c r="V4" s="11">
-        <v>400.0</v>
-      </c>
-      <c r="W4" s="11">
-        <v>600.0</v>
-      </c>
-      <c r="AC4" s="10" t="s">
-        <v>48</v>
+      <c r="K23" s="13">
+        <v>45699.0</v>
+      </c>
+      <c r="L23" s="13">
+        <v>45699.0</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O23" s="14">
+        <v>339.0</v>
+      </c>
+      <c r="P23" s="10">
+        <v>29.12778</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>40.98333</v>
+      </c>
+      <c r="AD23" s="5">
+        <v>317342.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24" s="13">
+        <v>45707.0</v>
+      </c>
+      <c r="L24" s="13">
+        <v>45707.0</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O24" s="14">
+        <v>264.0</v>
+      </c>
+      <c r="P24" s="10">
+        <v>29.12778</v>
+      </c>
+      <c r="Q24" s="10">
+        <v>40.98333</v>
+      </c>
+      <c r="AD24" s="5">
+        <v>317342.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" s="13">
+        <v>45715.0</v>
+      </c>
+      <c r="L25" s="13">
+        <v>45715.0</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O25" s="15"/>
+      <c r="P25" s="10">
+        <v>29.12778</v>
+      </c>
+      <c r="Q25" s="10">
+        <v>40.98333</v>
+      </c>
+      <c r="AD25" s="5">
+        <v>317342.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K26" s="13">
+        <v>45771.0</v>
+      </c>
+      <c r="L26" s="13">
+        <v>45771.0</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O26" s="14">
+        <v>158.0</v>
+      </c>
+      <c r="P26" s="10">
+        <v>29.12778</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>40.98333</v>
+      </c>
+      <c r="AD26" s="5">
+        <v>317342.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27" s="13">
+        <v>45792.0</v>
+      </c>
+      <c r="L27" s="13">
+        <v>45792.0</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O27" s="14">
+        <v>41.0</v>
+      </c>
+      <c r="P27" s="10">
+        <v>29.12778</v>
+      </c>
+      <c r="Q27" s="10">
+        <v>40.98333</v>
+      </c>
+      <c r="AD27" s="5">
+        <v>317342.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28" s="13">
+        <v>45728.0</v>
+      </c>
+      <c r="L28" s="13">
+        <v>45728.0</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O28" s="14">
+        <v>157.0</v>
+      </c>
+      <c r="P28" s="10">
+        <v>29.12778</v>
+      </c>
+      <c r="Q28" s="10">
+        <v>40.98333</v>
+      </c>
+      <c r="AD28" s="5">
+        <v>317342.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29" s="17">
+        <v>45646.0</v>
+      </c>
+      <c r="L29" s="17">
+        <v>45646.0</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O29" s="14">
+        <v>2081.0</v>
+      </c>
+      <c r="P29" s="10">
+        <v>29.12778</v>
+      </c>
+      <c r="Q29" s="10">
+        <v>40.98333</v>
+      </c>
+      <c r="AD29" s="5">
+        <v>317342.0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="N2"/>
-    <hyperlink r:id="rId2" ref="N3"/>
-    <hyperlink r:id="rId3" ref="N4"/>
+    <hyperlink r:id="rId1" ref="M2"/>
+    <hyperlink r:id="rId2" ref="N2"/>
+    <hyperlink r:id="rId3" ref="M3"/>
+    <hyperlink r:id="rId4" ref="M4"/>
+    <hyperlink r:id="rId5" ref="M5"/>
+    <hyperlink r:id="rId6" ref="M6"/>
+    <hyperlink r:id="rId7" ref="M7"/>
+    <hyperlink r:id="rId8" ref="M8"/>
+    <hyperlink r:id="rId9" ref="M9"/>
+    <hyperlink r:id="rId10" ref="M10"/>
+    <hyperlink r:id="rId11" ref="M11"/>
+    <hyperlink r:id="rId12" ref="M12"/>
+    <hyperlink r:id="rId13" ref="M13"/>
+    <hyperlink r:id="rId14" ref="M14"/>
+    <hyperlink r:id="rId15" ref="M15"/>
+    <hyperlink r:id="rId16" ref="M16"/>
+    <hyperlink r:id="rId17" ref="M17"/>
+    <hyperlink r:id="rId18" ref="M18"/>
+    <hyperlink r:id="rId19" ref="M19"/>
+    <hyperlink r:id="rId20" ref="M20"/>
+    <hyperlink r:id="rId21" ref="M21"/>
+    <hyperlink r:id="rId22" ref="M22"/>
+    <hyperlink r:id="rId23" ref="M23"/>
+    <hyperlink r:id="rId24" ref="M24"/>
+    <hyperlink r:id="rId25" ref="M25"/>
+    <hyperlink r:id="rId26" ref="M26"/>
+    <hyperlink r:id="rId27" ref="M27"/>
+    <hyperlink r:id="rId28" ref="M28"/>
+    <hyperlink r:id="rId29" ref="M29"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId30"/>
 </worksheet>
 </file>
--- a/resources/excel/example.xlsx
+++ b/resources/excel/example.xlsx
@@ -786,9 +786,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="d\-m"/>
+    <numFmt numFmtId="166" formatCode="d, m"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -838,7 +839,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -880,6 +881,9 @@
     </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
@@ -1102,6 +1106,12 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="15" max="15" width="22.0"/>
+    <col customWidth="1" min="18" max="18" width="66.38"/>
+    <col customWidth="1" min="25" max="25" width="21.25"/>
+    <col customWidth="1" min="26" max="26" width="18.13"/>
+  </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -4235,8 +4245,8 @@
       <c r="E37" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F37" s="3">
-        <v>2.6</v>
+      <c r="F37" s="14">
+        <v>45810.0</v>
       </c>
       <c r="G37" s="3">
         <v>1.0</v>
@@ -5196,10 +5206,10 @@
       <c r="J48" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="K48" s="14" t="s">
+      <c r="K48" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="L48" s="14" t="s">
+      <c r="L48" s="15" t="s">
         <v>180</v>
       </c>
       <c r="M48" s="2" t="s">
@@ -5211,10 +5221,10 @@
       <c r="O48" s="3">
         <v>8.0</v>
       </c>
-      <c r="P48" s="15">
+      <c r="P48" s="16">
         <v>49.0146395418681</v>
       </c>
-      <c r="Q48" s="15">
+      <c r="Q48" s="16">
         <v>21.2208887255057</v>
       </c>
       <c r="R48" s="6" t="s">
@@ -5282,10 +5292,10 @@
       <c r="J49" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="K49" s="14" t="s">
+      <c r="K49" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="L49" s="14" t="s">
+      <c r="L49" s="15" t="s">
         <v>182</v>
       </c>
       <c r="M49" s="2" t="s">
@@ -5297,10 +5307,10 @@
       <c r="O49" s="3">
         <v>9.0</v>
       </c>
-      <c r="P49" s="15">
+      <c r="P49" s="16">
         <v>49.0146395418681</v>
       </c>
-      <c r="Q49" s="15">
+      <c r="Q49" s="16">
         <v>21.2208887255057</v>
       </c>
       <c r="R49" s="6" t="s">
@@ -5368,10 +5378,10 @@
       <c r="J50" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="K50" s="14" t="s">
+      <c r="K50" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="L50" s="14" t="s">
+      <c r="L50" s="15" t="s">
         <v>183</v>
       </c>
       <c r="M50" s="2" t="s">
@@ -5383,10 +5393,10 @@
       <c r="O50" s="3">
         <v>8.0</v>
       </c>
-      <c r="P50" s="15">
+      <c r="P50" s="16">
         <v>49.0146395418681</v>
       </c>
-      <c r="Q50" s="15">
+      <c r="Q50" s="16">
         <v>21.2208887255057</v>
       </c>
       <c r="R50" s="6" t="s">
@@ -5454,10 +5464,10 @@
       <c r="J51" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="K51" s="14" t="s">
+      <c r="K51" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="L51" s="14" t="s">
+      <c r="L51" s="15" t="s">
         <v>185</v>
       </c>
       <c r="M51" s="2" t="s">
@@ -5469,10 +5479,10 @@
       <c r="O51" s="3">
         <v>10.0</v>
       </c>
-      <c r="P51" s="15">
+      <c r="P51" s="16">
         <v>49.0146395418681</v>
       </c>
-      <c r="Q51" s="15">
+      <c r="Q51" s="16">
         <v>21.2208887255057</v>
       </c>
       <c r="R51" s="6" t="s">
@@ -7847,8 +7857,8 @@
       <c r="E79" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="F79" s="3">
-        <v>2.6</v>
+      <c r="F79" s="14">
+        <v>45810.0</v>
       </c>
       <c r="G79" s="3">
         <v>1.0</v>
@@ -8711,8 +8721,8 @@
       <c r="E89" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F89" s="3">
-        <v>2.6</v>
+      <c r="F89" s="14">
+        <v>45810.0</v>
       </c>
       <c r="G89" s="3">
         <v>1.0</v>
